--- a/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Permission to Contact.xlsx
+++ b/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Permission to Contact.xlsx
@@ -40003,77 +40003,77 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="P481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
     </row>
@@ -40087,77 +40087,77 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="M482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="P482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
     </row>

--- a/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Permission to Contact.xlsx
+++ b/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Permission to Contact.xlsx
@@ -595,65 +595,65 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.515</t>
+          <t>0.546</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.509</t>
+          <t>0.505</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.572</t>
+          <t>0.570</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.467</t>
+          <t>0.488</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.539</t>
+          <t>0.541</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.505</t>
+          <t>0.502</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.567</t>
+          <t>0.572</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.378</t>
+          <t>0.395</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.024 (P = 0.182)</t>
+          <t>-0.005 (P = 0.617)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-0.004 (P = 0.930)</t>
+          <t>-0.004 (P = 0.809)</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-0.005 (P = 0.875)</t>
+          <t>0.002 (P = 0.873)</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.089 (P = 0.399)</t>
+          <t>-0.093 (P = 0.160)</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.252</t>
+          <t>6.164</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>6.235</t>
+          <t>6.236</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -965,23 +965,23 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-0.016 (P = 0.846)</t>
+          <t>0.072 (P = 0.305)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-0.223 (P = 0.279)</t>
+          <t>-0.223 (P = 0.078)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.190 (P = 0.170)</t>
+          <t>0.191 (P = 0.030)</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.314 (P = 0.548)</t>
+          <t>0.314 (P = 0.298)</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.404</t>
+          <t>3.941</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1378,23 +1378,23 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.004 (P = 0.970)</t>
+          <t>0.467 (P = 0.000)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.291 (P = 0.253)</t>
+          <t>0.291 (P = 0.078)</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.521 (P = 0.001)</t>
+          <t>0.521 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.824 (P = 0.160)</t>
+          <t>0.824 (P = 0.031)</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.695</t>
+          <t>6.777</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1790,23 +1790,23 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0.283 (P = 0.001)</t>
+          <t>0.200 (P = 0.022)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-0.220 (P = 0.301)</t>
+          <t>-0.220 (P = 0.149)</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.337 (P = 0.016)</t>
+          <t>0.337 (P = 0.002)</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.961 (P = 0.073)</t>
+          <t>0.961 (P = 0.011)</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6.356</t>
+          <t>6.456</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2203,23 +2203,23 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0.146 (P = 0.100)</t>
+          <t>0.046 (P = 0.616)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-0.139 (P = 0.520)</t>
+          <t>-0.139 (P = 0.373)</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.117 (P = 0.424)</t>
+          <t>0.117 (P = 0.315)</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.235 (P = 0.675)</t>
+          <t>0.235 (P = 0.565)</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5.603</t>
+          <t>5.458</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2616,12 +2616,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0.381 (P = 0.000)</t>
+          <t>0.525 (P = 0.000)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.233 (P = 0.296)</t>
+          <t>0.233 (P = 0.142)</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2632,7 +2632,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.549 (P = 0.326)</t>
+          <t>0.549 (P = 0.146)</t>
         </is>
       </c>
     </row>
@@ -2987,12 +2987,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6.130</t>
+          <t>6.132</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6.466</t>
+          <t>6.455</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>6.000</t>
+          <t>6.004</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>5.949</t>
+          <t>5.955</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -3029,23 +3029,23 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>-0.130 (P = 0.194)</t>
+          <t>-0.128 (P = 0.198)</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>-0.352 (P = 0.144)</t>
+          <t>-0.341 (P = 0.047)</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>-0.034 (P = 0.835)</t>
+          <t>-0.028 (P = 0.819)</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>-0.137 (P = 0.820)</t>
+          <t>-0.137 (P = 0.794)</t>
         </is>
       </c>
     </row>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.197</t>
+          <t>3.883</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3442,12 +3442,12 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>0.214 (P = 0.023)</t>
+          <t>0.528 (P = 0.000)</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.340 (P = 0.161)</t>
+          <t>0.340 (P = 0.031)</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3458,7 +3458,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.686 (P = 0.213)</t>
+          <t>0.686 (P = 0.051)</t>
         </is>
       </c>
     </row>
@@ -3813,17 +3813,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7.211</t>
+          <t>7.322</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.353</t>
+          <t>7.405</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>7.331</t>
+          <t>7.330</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -3834,44 +3834,44 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>7.437</t>
+          <t>7.481</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>7.253</t>
+          <t>7.254</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>7.538</t>
+          <t>7.605</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>7.176</t>
+          <t>7.170</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0.226 (P = 0.004)</t>
+          <t>0.159 (P = 0.030)</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>-0.100 (P = 0.590)</t>
+          <t>-0.151 (P = 0.258)</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0.207 (P = 0.097)</t>
+          <t>0.275 (P = 0.003)</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0.453 (P = 0.377)</t>
+          <t>0.447 (P = 0.188)</t>
         </is>
       </c>
     </row>
@@ -4226,17 +4226,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.891</t>
+          <t>5.257</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5.307</t>
+          <t>5.308</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>5.260</t>
+          <t>5.249</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -4247,44 +4247,44 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>5.334</t>
+          <t>5.343</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>5.237</t>
+          <t>5.333</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>5.374</t>
+          <t>5.343</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>5.380</t>
+          <t>5.388</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>0.443 (P = 0.000)</t>
+          <t>0.086 (P = 0.347)</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>-0.070 (P = 0.800)</t>
+          <t>0.026 (P = 0.872)</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>0.114 (P = 0.556)</t>
+          <t>0.094 (P = 0.419)</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>0.319 (P = 0.628)</t>
+          <t>0.327 (P = 0.407)</t>
         </is>
       </c>
     </row>
@@ -4639,65 +4639,65 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>7.287</t>
+          <t>7.409</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>7.184</t>
+          <t>7.323</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>7.400</t>
+          <t>7.449</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>7.261</t>
+          <t>7.425</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>7.278</t>
+          <t>7.381</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>7.409</t>
+          <t>7.404</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>7.244</t>
+          <t>7.377</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>6.909</t>
+          <t>7.275</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>-0.009 (P = 0.929)</t>
+          <t>-0.028 (P = 0.739)</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>0.225 (P = 0.338)</t>
+          <t>0.082 (P = 0.553)</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>-0.156 (P = 0.352)</t>
+          <t>-0.072 (P = 0.517)</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-0.352 (P = 0.543)</t>
+          <t>-0.150 (P = 0.684)</t>
         </is>
       </c>
     </row>
@@ -5052,17 +5052,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5.734</t>
+          <t>5.793</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5.976</t>
+          <t>5.979</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5.714</t>
+          <t>5.710</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -5073,44 +5073,44 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>5.403</t>
+          <t>5.439</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>5.929</t>
+          <t>5.943</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>5.170</t>
+          <t>5.205</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>5.286</t>
+          <t>5.383</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>-0.331 (P = 0.002)</t>
+          <t>-0.354 (P = 0.000)</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>-0.047 (P = 0.854)</t>
+          <t>-0.036 (P = 0.817)</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>-0.544 (P = 0.002)</t>
+          <t>-0.505 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>-0.438 (P = 0.509)</t>
+          <t>-0.340 (P = 0.444)</t>
         </is>
       </c>
     </row>
@@ -5465,65 +5465,65 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6.200</t>
+          <t>6.540</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6.434</t>
+          <t>6.475</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>6.497</t>
+          <t>6.560</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>6.628</t>
+          <t>6.675</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>6.257</t>
+          <t>6.389</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>6.353</t>
+          <t>6.411</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>6.244</t>
+          <t>6.390</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>5.848</t>
+          <t>6.225</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>0.057 (P = 0.612)</t>
+          <t>-0.151 (P = 0.059)</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>-0.081 (P = 0.755)</t>
+          <t>-0.065 (P = 0.663)</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>-0.254 (P = 0.161)</t>
+          <t>-0.170 (P = 0.082)</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>-0.780 (P = 0.277)</t>
+          <t>-0.450 (P = 0.256)</t>
         </is>
       </c>
     </row>
@@ -5878,65 +5878,65 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>6.262</t>
+          <t>6.674</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>6.425</t>
+          <t>6.462</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>6.728</t>
+          <t>6.753</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>6.829</t>
+          <t>6.875</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>6.423</t>
+          <t>6.475</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>6.397</t>
+          <t>6.390</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>6.445</t>
+          <t>6.491</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>6.292</t>
+          <t>6.775</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0.161 (P = 0.119)</t>
+          <t>-0.199 (P = 0.025)</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>-0.028 (P = 0.911)</t>
+          <t>-0.072 (P = 0.654)</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>-0.284 (P = 0.081)</t>
+          <t>-0.261 (P = 0.019)</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>-0.538 (P = 0.360)</t>
+          <t>-0.100 (P = 0.771)</t>
         </is>
       </c>
     </row>
@@ -6291,65 +6291,65 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>5.930</t>
+          <t>5.869</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5.782</t>
+          <t>5.872</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>5.850</t>
+          <t>5.864</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>5.884</t>
+          <t>5.925</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>5.496</t>
+          <t>5.585</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>5.892</t>
+          <t>5.903</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>5.292</t>
+          <t>5.390</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>5.896</t>
+          <t>6.325</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>-0.433 (P = 0.000)</t>
+          <t>-0.284 (P = 0.004)</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0.111 (P = 0.659)</t>
+          <t>0.031 (P = 0.857)</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>-0.558 (P = 0.002)</t>
+          <t>-0.474 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>0.012 (P = 0.983)</t>
+          <t>0.400 (P = 0.367)</t>
         </is>
       </c>
     </row>
@@ -6704,65 +6704,65 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>6.931</t>
+          <t>7.237</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>7.116</t>
+          <t>7.293</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>7.229</t>
+          <t>7.206</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>7.082</t>
+          <t>7.302</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>6.395</t>
+          <t>6.510</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>7.156</t>
+          <t>7.223</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>6.077</t>
+          <t>6.208</t>
         </is>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>6.067</t>
+          <t>6.163</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>-0.536 (P = 0.000)</t>
+          <t>-0.727 (P = 0.000)</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>0.039 (P = 0.862)</t>
+          <t>-0.070 (P = 0.644)</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>-1.152 (P = 0.000)</t>
+          <t>-0.998 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>-1.015 (P = 0.084)</t>
+          <t>-1.140 (P = 0.012)</t>
         </is>
       </c>
     </row>
@@ -7117,65 +7117,65 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6.894</t>
+          <t>7.330</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>7.066</t>
+          <t>7.121</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>7.415</t>
+          <t>7.429</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>7.340</t>
+          <t>7.262</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>6.745</t>
+          <t>6.799</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>6.888</t>
+          <t>6.939</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>6.662</t>
+          <t>6.717</t>
         </is>
       </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>7.000</t>
+          <t>7.071</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>-0.149 (P = 0.149)</t>
+          <t>-0.531 (P = 0.000)</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>-0.178 (P = 0.455)</t>
+          <t>-0.182 (P = 0.139)</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>-0.753 (P = 0.000)</t>
+          <t>-0.712 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>-0.340 (P = 0.557)</t>
+          <t>-0.190 (P = 0.619)</t>
         </is>
       </c>
     </row>
@@ -7530,65 +7530,65 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4.089</t>
+          <t>4.271</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4.530</t>
+          <t>4.461</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4.319</t>
+          <t>4.260</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>3.220</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>3.827</t>
+          <t>3.887</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>4.248</t>
+          <t>4.295</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>3.691</t>
+          <t>3.756</t>
         </is>
       </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>3.070</t>
+          <t>3.098</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>-0.263 (P = 0.029)</t>
+          <t>-0.384 (P = 0.000)</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>-0.282 (P = 0.333)</t>
+          <t>-0.167 (P = 0.319)</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>-0.628 (P = 0.001)</t>
+          <t>-0.505 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr">
         <is>
-          <t>0.070 (P = 0.916)</t>
+          <t>-0.122 (P = 0.687)</t>
         </is>
       </c>
     </row>
@@ -7943,65 +7943,65 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>6.694</t>
+          <t>7.038</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>7.007</t>
+          <t>7.118</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>7.074</t>
+          <t>7.081</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>5.854</t>
+          <t>5.905</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>6.531</t>
+          <t>6.592</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>6.899</t>
+          <t>6.959</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>6.435</t>
+          <t>6.492</t>
         </is>
       </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>5.556</t>
+          <t>5.619</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>-0.163 (P = 0.095)</t>
+          <t>-0.446 (P = 0.000)</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>-0.108 (P = 0.621)</t>
+          <t>-0.159 (P = 0.141)</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>-0.639 (P = 0.000)</t>
+          <t>-0.589 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr">
         <is>
-          <t>-0.299 (P = 0.633)</t>
+          <t>-0.286 (P = 0.506)</t>
         </is>
       </c>
     </row>
@@ -8356,65 +8356,65 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>6.606</t>
+          <t>6.998</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>6.743</t>
+          <t>6.896</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>7.002</t>
+          <t>7.070</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>6.268</t>
+          <t>6.649</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>6.936</t>
+          <t>7.109</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>7.170</t>
+          <t>7.304</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>6.860</t>
+          <t>7.042</t>
         </is>
       </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>6.537</t>
+          <t>6.757</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>0.330 (P = 0.001)</t>
+          <t>0.112 (P = 0.175)</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>0.426 (P = 0.059)</t>
+          <t>0.408 (P = 0.003)</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>-0.142 (P = 0.356)</t>
+          <t>-0.028 (P = 0.791)</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr">
         <is>
-          <t>0.268 (P = 0.677)</t>
+          <t>0.108 (P = 0.742)</t>
         </is>
       </c>
     </row>
@@ -8769,65 +8769,65 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>6.460</t>
+          <t>6.909</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>6.800</t>
+          <t>6.870</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>6.934</t>
+          <t>6.998</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>5.786</t>
+          <t>5.897</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>6.705</t>
+          <t>6.789</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>6.781</t>
+          <t>6.925</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>6.737</t>
+          <t>6.792</t>
         </is>
       </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>5.822</t>
+          <t>5.923</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>0.245 (P = 0.018)</t>
+          <t>-0.119 (P = 0.195)</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>-0.019 (P = 0.939)</t>
+          <t>0.054 (P = 0.722)</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>-0.197 (P = 0.226)</t>
+          <t>-0.206 (P = 0.082)</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr">
         <is>
-          <t>0.037 (P = 0.957)</t>
+          <t>0.026 (P = 0.950)</t>
         </is>
       </c>
     </row>
@@ -9182,65 +9182,65 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>7.669</t>
+          <t>7.804</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>7.618</t>
+          <t>7.682</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>7.838</t>
+          <t>7.860</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>7.812</t>
+          <t>7.804</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>7.104</t>
+          <t>7.199</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>7.707</t>
+          <t>7.752</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>6.846</t>
+          <t>6.958</t>
         </is>
       </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>6.875</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>-0.566 (P = 0.000)</t>
+          <t>-0.605 (P = 0.000)</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>0.089 (P = 0.645)</t>
+          <t>0.069 (P = 0.544)</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>-0.992 (P = 0.000)</t>
+          <t>-0.902 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr">
         <is>
-          <t>-0.938 (P = 0.028)</t>
+          <t>-0.804 (P = 0.015)</t>
         </is>
       </c>
     </row>
@@ -9595,65 +9595,65 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>6.592</t>
+          <t>6.398</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>6.468</t>
+          <t>6.598</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>6.275</t>
+          <t>6.331</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>5.977</t>
+          <t>6.050</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>6.430</t>
+          <t>6.535</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>6.889</t>
+          <t>6.964</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>6.235</t>
+          <t>6.366</t>
         </is>
       </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>6.238</t>
+          <t>6.150</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>-0.162 (P = 0.101)</t>
+          <t>0.138 (P = 0.124)</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>0.420 (P = 0.063)</t>
+          <t>0.367 (P = 0.014)</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>-0.040 (P = 0.808)</t>
+          <t>0.035 (P = 0.766)</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr">
         <is>
-          <t>0.261 (P = 0.667)</t>
+          <t>0.100 (P = 0.720)</t>
         </is>
       </c>
     </row>
@@ -10008,65 +10008,65 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>7.111</t>
+          <t>7.470</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>7.285</t>
+          <t>7.302</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>7.571</t>
+          <t>7.579</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>7.020</t>
+          <t>7.043</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>7.503</t>
+          <t>7.570</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>7.207</t>
+          <t>7.288</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>7.700</t>
+          <t>7.764</t>
         </is>
       </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>6.660</t>
+          <t>6.717</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>0.392 (P = 0.000)</t>
+          <t>0.100 (P = 0.136)</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>-0.078 (P = 0.752)</t>
+          <t>-0.014 (P = 0.905)</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>0.129 (P = 0.437)</t>
+          <t>0.185 (P = 0.031)</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr">
         <is>
-          <t>-0.360 (P = 0.621)</t>
+          <t>-0.326 (P = 0.267)</t>
         </is>
       </c>
     </row>
@@ -10421,65 +10421,65 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>6.420</t>
+          <t>6.996</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>6.866</t>
+          <t>6.869</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>7.032</t>
+          <t>7.102</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>6.214</t>
+          <t>6.275</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>6.717</t>
+          <t>6.775</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>6.638</t>
+          <t>6.734</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>6.809</t>
+          <t>6.865</t>
         </is>
       </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
-          <t>5.933</t>
+          <t>5.725</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>0.297 (P = 0.015)</t>
+          <t>-0.221 (P = 0.002)</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>-0.229 (P = 0.413)</t>
+          <t>-0.135 (P = 0.317)</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>-0.223 (P = 0.251)</t>
+          <t>-0.237 (P = 0.005)</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr">
         <is>
-          <t>-0.281 (P = 0.716)</t>
+          <t>-0.550 (P = 0.147)</t>
         </is>
       </c>
     </row>
@@ -10834,65 +10834,65 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>4.449</t>
+          <t>4.661</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>4.706</t>
+          <t>4.695</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>4.636</t>
+          <t>4.595</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>5.295</t>
+          <t>5.350</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>5.177</t>
+          <t>5.061</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>4.865</t>
+          <t>4.755</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>5.337</t>
+          <t>5.220</t>
         </is>
       </c>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
-          <t>4.848</t>
+          <t>4.825</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>0.728 (P = 0.000)</t>
+          <t>0.400 (P = 0.000)</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>0.159 (P = 0.589)</t>
+          <t>0.060 (P = 0.715)</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>0.701 (P = 0.001)</t>
+          <t>0.625 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr">
         <is>
-          <t>-0.448 (P = 0.536)</t>
+          <t>-0.525 (P = 0.143)</t>
         </is>
       </c>
     </row>
@@ -11247,65 +11247,65 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>5.697</t>
+          <t>6.030</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>5.932</t>
+          <t>5.948</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>6.090</t>
+          <t>6.095</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>5.386</t>
+          <t>5.643</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>6.320</t>
+          <t>6.375</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>6.312</t>
+          <t>6.336</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>6.414</t>
+          <t>6.484</t>
         </is>
       </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
-          <t>5.065</t>
+          <t>5.095</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>0.624 (P = 0.000)</t>
+          <t>0.345 (P = 0.000)</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>0.380 (P = 0.155)</t>
+          <t>0.388 (P = 0.004)</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>0.325 (P = 0.087)</t>
+          <t>0.389 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr">
         <is>
-          <t>-0.321 (P = 0.646)</t>
+          <t>-0.548 (P = 0.171)</t>
         </is>
       </c>
     </row>
@@ -11660,65 +11660,65 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>5.396</t>
+          <t>5.644</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>5.577</t>
+          <t>5.650</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>5.609</t>
+          <t>5.636</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>5.571</t>
+          <t>5.707</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>5.628</t>
+          <t>5.699</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>5.789</t>
+          <t>5.787</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>5.584</t>
+          <t>5.684</t>
         </is>
       </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
-          <t>5.271</t>
+          <t>5.366</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>0.232 (P = 0.049)</t>
+          <t>0.055 (P = 0.546)</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>0.212 (P = 0.440)</t>
+          <t>0.137 (P = 0.383)</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>-0.024 (P = 0.902)</t>
+          <t>0.048 (P = 0.686)</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr">
         <is>
-          <t>-0.301 (P = 0.672)</t>
+          <t>-0.341 (P = 0.241)</t>
         </is>
       </c>
     </row>
@@ -12073,65 +12073,65 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>6.287</t>
+          <t>6.699</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>6.417</t>
+          <t>6.454</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>6.774</t>
+          <t>6.814</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>6.568</t>
+          <t>6.707</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>6.466</t>
+          <t>6.583</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>6.402</t>
+          <t>6.410</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>6.509</t>
+          <t>6.677</t>
         </is>
       </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
-          <t>6.267</t>
+          <t>6.439</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>0.179 (P = 0.117)</t>
+          <t>-0.115 (P = 0.176)</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>-0.015 (P = 0.955)</t>
+          <t>-0.044 (P = 0.753)</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>-0.264 (P = 0.151)</t>
+          <t>-0.137 (P = 0.222)</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr">
         <is>
-          <t>-0.302 (P = 0.631)</t>
+          <t>-0.268 (P = 0.357)</t>
         </is>
       </c>
     </row>
@@ -12486,65 +12486,65 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>5.279</t>
+          <t>5.514</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>5.716</t>
+          <t>5.679</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>5.466</t>
+          <t>5.461</t>
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>5.233</t>
+          <t>5.190</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>5.101</t>
+          <t>5.181</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>5.688</t>
+          <t>5.729</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>4.889</t>
+          <t>4.973</t>
         </is>
       </c>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
-          <t>4.383</t>
+          <t>4.548</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>-0.179 (P = 0.114)</t>
+          <t>-0.333 (P = 0.001)</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>-0.029 (P = 0.914)</t>
+          <t>0.050 (P = 0.762)</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>-0.577 (P = 0.002)</t>
+          <t>-0.488 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr">
         <is>
-          <t>-0.850 (P = 0.222)</t>
+          <t>-0.643 (P = 0.146)</t>
         </is>
       </c>
     </row>
@@ -12899,65 +12899,65 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>5.724</t>
+          <t>6.284</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>6.121</t>
+          <t>6.101</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>6.379</t>
+          <t>6.387</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
         <is>
-          <t>5.978</t>
+          <t>5.955</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>6.311</t>
+          <t>6.362</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>6.003</t>
+          <t>6.037</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>6.481</t>
+          <t>6.537</t>
         </is>
       </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr">
         <is>
-          <t>5.872</t>
+          <t>5.886</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>0.587 (P = 0.000)</t>
+          <t>0.078 (P = 0.249)</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>-0.118 (P = 0.675)</t>
+          <t>-0.064 (P = 0.603)</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>0.102 (P = 0.593)</t>
+          <t>0.150 (P = 0.080)</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr">
         <is>
-          <t>-0.106 (P = 0.873)</t>
+          <t>-0.068 (P = 0.740)</t>
         </is>
       </c>
     </row>
@@ -13312,65 +13312,65 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>3.600</t>
+          <t>3.542</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>3.768</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>3.470</t>
+          <t>3.460</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>3.292</t>
+          <t>3.362</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>3.776</t>
+          <t>3.769</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>3.903</t>
+          <t>3.880</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>3.742</t>
+          <t>3.736</t>
         </is>
       </c>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr">
         <is>
-          <t>3.449</t>
+          <t>3.511</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>0.176 (P = 0.070)</t>
+          <t>0.226 (P = 0.001)</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>0.135 (P = 0.583)</t>
+          <t>0.130 (P = 0.338)</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>0.272 (P = 0.067)</t>
+          <t>0.276 (P = 0.001)</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr">
         <is>
-          <t>0.157 (P = 0.792)</t>
+          <t>0.149 (P = 0.679)</t>
         </is>
       </c>
     </row>
@@ -13725,38 +13725,38 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>7.226</t>
+          <t>7.733</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>7.497</t>
+          <t>7.557</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>7.815</t>
+          <t>7.876</t>
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>6.918</t>
+          <t>6.935</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>7.783</t>
+          <t>7.880</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>7.455</t>
+          <t>7.511</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>7.988</t>
+          <t>8.119</t>
         </is>
       </c>
       <c r="L163" t="inlineStr"/>
@@ -13767,23 +13767,23 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>0.557 (P = 0.000)</t>
+          <t>0.147 (P = 0.031)</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>-0.041 (P = 0.823)</t>
+          <t>-0.046 (P = 0.737)</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>0.172 (P = 0.132)</t>
+          <t>0.243 (P = 0.003)</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="inlineStr">
         <is>
-          <t>0.082 (P = 0.868)</t>
+          <t>0.065 (P = 0.810)</t>
         </is>
       </c>
     </row>
@@ -14137,38 +14137,38 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>4.495</t>
+          <t>4.621</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>4.636</t>
+          <t>4.630</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>4.665</t>
+          <t>4.670</t>
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>3.840</t>
+          <t>3.918</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>4.823</t>
+          <t>4.829</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>4.703</t>
+          <t>4.741</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>4.921</t>
+          <t>4.915</t>
         </is>
       </c>
       <c r="L168" t="inlineStr"/>
@@ -14179,23 +14179,23 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>0.328 (P = 0.001)</t>
+          <t>0.209 (P = 0.000)</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>0.068 (P = 0.783)</t>
+          <t>0.111 (P = 0.236)</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>0.256 (P = 0.100)</t>
+          <t>0.245 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr">
         <is>
-          <t>0.405 (P = 0.477)</t>
+          <t>0.327 (P = 0.146)</t>
         </is>
       </c>
     </row>
@@ -14550,38 +14550,38 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4.790</t>
+          <t>4.658</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>4.707</t>
+          <t>4.694</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>4.662</t>
+          <t>4.663</t>
         </is>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>4.300</t>
+          <t>4.367</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>4.890</t>
+          <t>4.903</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>4.860</t>
+          <t>4.888</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>4.930</t>
+          <t>4.938</t>
         </is>
       </c>
       <c r="L173" t="inlineStr"/>
@@ -14592,23 +14592,23 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>0.100 (P = 0.257)</t>
+          <t>0.246 (P = 0.000)</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>0.153 (P = 0.479)</t>
+          <t>0.194 (P = 0.057)</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>0.268 (P = 0.056)</t>
+          <t>0.275 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr">
         <is>
-          <t>0.251 (P = 0.624)</t>
+          <t>0.184 (P = 0.518)</t>
         </is>
       </c>
     </row>
@@ -14963,38 +14963,38 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>7.089</t>
+          <t>7.381</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>7.256</t>
+          <t>7.271</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>7.497</t>
+          <t>7.507</t>
         </is>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>6.360</t>
+          <t>6.408</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>7.609</t>
+          <t>7.631</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>7.373</t>
+          <t>7.398</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>7.806</t>
+          <t>7.832</t>
         </is>
       </c>
       <c r="L178" t="inlineStr"/>
@@ -15005,23 +15005,23 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>0.520 (P = 0.000)</t>
+          <t>0.249 (P = 0.000)</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>0.118 (P = 0.544)</t>
+          <t>0.127 (P = 0.205)</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>0.309 (P = 0.017)</t>
+          <t>0.325 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr"/>
       <c r="R178" t="inlineStr">
         <is>
-          <t>0.048 (P = 0.929)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
     </row>
@@ -15376,17 +15376,17 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>6.901</t>
+          <t>7.441</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>7.046</t>
+          <t>7.121</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>7.493</t>
+          <t>7.567</t>
         </is>
       </c>
       <c r="G183" t="inlineStr"/>
@@ -15397,44 +15397,44 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>7.377</t>
+          <t>7.480</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>7.201</t>
+          <t>7.262</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>7.478</t>
+          <t>7.608</t>
         </is>
       </c>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr">
         <is>
-          <t>7.137</t>
+          <t>7.152</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>0.477 (P = 0.000)</t>
+          <t>0.039 (P = 0.672)</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>0.155 (P = 0.514)</t>
+          <t>0.141 (P = 0.412)</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>-0.015 (P = 0.923)</t>
+          <t>0.041 (P = 0.728)</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="inlineStr">
         <is>
-          <t>-0.537 (P = 0.349)</t>
+          <t>-0.522 (P = 0.146)</t>
         </is>
       </c>
     </row>
@@ -15788,65 +15788,65 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>6.288</t>
+          <t>6.622</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>6.547</t>
+          <t>6.602</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>6.673</t>
+          <t>6.668</t>
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>6.174</t>
+          <t>6.163</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>6.010</t>
+          <t>6.106</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>6.409</t>
+          <t>6.566</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>5.780</t>
+          <t>5.859</t>
         </is>
       </c>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr">
         <is>
-          <t>6.638</t>
+          <t>6.558</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>-0.278 (P = 0.012)</t>
+          <t>-0.516 (P = 0.000)</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>-0.137 (P = 0.600)</t>
+          <t>-0.037 (P = 0.809)</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>-0.894 (P = 0.000)</t>
+          <t>-0.809 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr">
         <is>
-          <t>0.464 (P = 0.479)</t>
+          <t>0.395 (P = 0.401)</t>
         </is>
       </c>
     </row>
@@ -16201,65 +16201,65 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>6.737</t>
+          <t>7.071</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>6.882</t>
+          <t>6.948</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>7.130</t>
+          <t>7.133</t>
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>6.956</t>
+          <t>6.977</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>6.723</t>
+          <t>6.779</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>6.764</t>
+          <t>6.825</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>6.689</t>
+          <t>6.738</t>
         </is>
       </c>
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr">
         <is>
-          <t>6.935</t>
+          <t>7.047</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>-0.013 (P = 0.892)</t>
+          <t>-0.292 (P = 0.000)</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>-0.118 (P = 0.612)</t>
+          <t>-0.123 (P = 0.369)</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>-0.440 (P = 0.003)</t>
+          <t>-0.395 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="inlineStr">
         <is>
-          <t>-0.021 (P = 0.971)</t>
+          <t>0.070 (P = 0.840)</t>
         </is>
       </c>
     </row>
@@ -16614,65 +16614,65 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>5.826</t>
+          <t>6.177</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>6.077</t>
+          <t>6.054</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>6.222</t>
+          <t>6.194</t>
         </is>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>6.750</t>
+          <t>6.681</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>5.766</t>
+          <t>5.798</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>6.125</t>
+          <t>6.130</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>5.584</t>
+          <t>5.614</t>
         </is>
       </c>
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr">
         <is>
-          <t>6.041</t>
+          <t>6.234</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>-0.061 (P = 0.624)</t>
+          <t>-0.379 (P = 0.000)</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>0.049 (P = 0.864)</t>
+          <t>0.076 (P = 0.570)</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>-0.638 (P = 0.001)</t>
+          <t>-0.580 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="inlineStr">
         <is>
-          <t>-0.709 (P = 0.351)</t>
+          <t>-0.447 (P = 0.066)</t>
         </is>
       </c>
     </row>
@@ -17027,65 +17027,65 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>5.790</t>
+          <t>5.835</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>5.751</t>
+          <t>5.779</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>5.894</t>
+          <t>5.906</t>
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>5.208</t>
+          <t>5.234</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>5.615</t>
+          <t>5.636</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>6.337</t>
+          <t>6.365</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>5.331</t>
+          <t>5.346</t>
         </is>
       </c>
       <c r="L203" t="inlineStr"/>
       <c r="M203" t="inlineStr">
         <is>
-          <t>5.020</t>
+          <t>5.043</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>-0.175 (P = 0.130)</t>
+          <t>-0.199 (P = 0.040)</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>0.586 (P = 0.023)</t>
+          <t>0.586 (P = 0.000)</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>-0.563 (P = 0.003)</t>
+          <t>-0.561 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr"/>
       <c r="R203" t="inlineStr">
         <is>
-          <t>-0.188 (P = 0.788)</t>
+          <t>-0.191 (P = 0.584)</t>
         </is>
       </c>
     </row>
@@ -17440,38 +17440,38 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2.786</t>
+          <t>2.591</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>3.089</t>
+          <t>3.064</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2.354</t>
+          <t>2.350</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>3.064</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>2.181</t>
+          <t>2.123</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>3.171</t>
+          <t>3.105</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>1.716</t>
+          <t>1.662</t>
         </is>
       </c>
       <c r="L208" t="inlineStr"/>
@@ -17482,23 +17482,23 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>-0.605 (P = 0.000)</t>
+          <t>-0.468 (P = 0.000)</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>0.082 (P = 0.757)</t>
+          <t>0.041 (P = 0.742)</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>-0.638 (P = 0.000)</t>
+          <t>-0.688 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr"/>
       <c r="R208" t="inlineStr">
         <is>
-          <t>-0.426 (P = 0.513)</t>
+          <t>-0.489 (P = 0.210)</t>
         </is>
       </c>
     </row>
@@ -17853,65 +17853,65 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>7.376</t>
+          <t>7.623</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>7.355</t>
+          <t>7.436</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>7.690</t>
+          <t>7.759</t>
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>6.870</t>
+          <t>6.932</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>7.392</t>
+          <t>7.473</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>7.618</t>
+          <t>7.658</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>7.370</t>
+          <t>7.454</t>
         </is>
       </c>
       <c r="L213" t="inlineStr"/>
       <c r="M213" t="inlineStr">
         <is>
-          <t>6.319</t>
+          <t>6.568</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>0.016 (P = 0.869)</t>
+          <t>-0.150 (P = 0.041)</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>0.262 (P = 0.230)</t>
+          <t>0.222 (P = 0.055)</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>-0.320 (P = 0.036)</t>
+          <t>-0.304 (P = 0.001)</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr"/>
       <c r="R213" t="inlineStr">
         <is>
-          <t>-0.550 (P = 0.398)</t>
+          <t>-0.364 (P = 0.387)</t>
         </is>
       </c>
     </row>
@@ -18266,65 +18266,65 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>6.903</t>
+          <t>7.021</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>6.926</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>7.020</t>
+          <t>7.074</t>
         </is>
       </c>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>6.306</t>
+          <t>6.333</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>6.718</t>
+          <t>6.825</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>7.187</t>
+          <t>7.295</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>6.538</t>
+          <t>6.603</t>
         </is>
       </c>
       <c r="L218" t="inlineStr"/>
       <c r="M218" t="inlineStr">
         <is>
-          <t>6.341</t>
+          <t>6.818</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>-0.186 (P = 0.058)</t>
+          <t>-0.196 (P = 0.042)</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>0.260 (P = 0.243)</t>
+          <t>0.295 (P = 0.050)</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>-0.482 (P = 0.002)</t>
+          <t>-0.471 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr"/>
       <c r="R218" t="inlineStr">
         <is>
-          <t>0.035 (P = 0.957)</t>
+          <t>0.485 (P = 0.315)</t>
         </is>
       </c>
     </row>
@@ -18679,65 +18679,65 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>5.446</t>
+          <t>5.763</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>5.566</t>
+          <t>5.799</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>5.737</t>
+          <t>5.774</t>
         </is>
       </c>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>5.256</t>
+          <t>5.417</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>5.708</t>
+          <t>5.747</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>5.779</t>
+          <t>5.930</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>5.706</t>
+          <t>5.677</t>
         </is>
       </c>
       <c r="L223" t="inlineStr"/>
       <c r="M223" t="inlineStr">
         <is>
-          <t>5.333</t>
+          <t>5.583</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>0.261 (P = 0.041)</t>
+          <t>-0.017 (P = 0.875)</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>0.213 (P = 0.493)</t>
+          <t>0.131 (P = 0.484)</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>-0.031 (P = 0.886)</t>
+          <t>-0.096 (P = 0.467)</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr"/>
       <c r="R223" t="inlineStr">
         <is>
-          <t>0.077 (P = 0.917)</t>
+          <t>0.167 (P = 0.663)</t>
         </is>
       </c>
     </row>
@@ -19092,65 +19092,65 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>5.366</t>
+          <t>5.486</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>5.287</t>
+          <t>5.337</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>5.517</t>
+          <t>5.497</t>
         </is>
       </c>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>6.128</t>
+          <t>6.261</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>5.039</t>
+          <t>5.072</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>5.490</t>
+          <t>5.484</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>4.807</t>
+          <t>4.847</t>
         </is>
       </c>
       <c r="L228" t="inlineStr"/>
       <c r="M228" t="inlineStr">
         <is>
-          <t>5.447</t>
+          <t>5.478</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>-0.327 (P = 0.009)</t>
+          <t>-0.415 (P = 0.000)</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>0.203 (P = 0.475)</t>
+          <t>0.147 (P = 0.331)</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>-0.711 (P = 0.000)</t>
+          <t>-0.650 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr"/>
       <c r="R228" t="inlineStr">
         <is>
-          <t>-0.681 (P = 0.334)</t>
+          <t>-0.783 (P = 0.085)</t>
         </is>
       </c>
     </row>
@@ -19505,65 +19505,65 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>7.226</t>
+          <t>7.281</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>7.139</t>
+          <t>7.148</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>7.316</t>
+          <t>7.340</t>
         </is>
       </c>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>7.333</t>
+          <t>7.341</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>7.288</t>
+          <t>7.338</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>7.355</t>
+          <t>7.415</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>7.254</t>
+          <t>7.285</t>
         </is>
       </c>
       <c r="L233" t="inlineStr"/>
       <c r="M233" t="inlineStr">
         <is>
-          <t>7.319</t>
+          <t>7.561</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>0.062 (P = 0.457)</t>
+          <t>0.057 (P = 0.509)</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>0.216 (P = 0.262)</t>
+          <t>0.267 (P = 0.072)</t>
         </is>
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>-0.062 (P = 0.649)</t>
+          <t>-0.055 (P = 0.617)</t>
         </is>
       </c>
       <c r="Q233" t="inlineStr"/>
       <c r="R233" t="inlineStr">
         <is>
-          <t>-0.014 (P = 0.978)</t>
+          <t>0.220 (P = 0.601)</t>
         </is>
       </c>
     </row>
@@ -19918,65 +19918,65 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>7.161</t>
+          <t>7.388</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>7.068</t>
+          <t>7.115</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>7.463</t>
+          <t>7.495</t>
         </is>
       </c>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>7.600</t>
+          <t>7.676</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>7.748</t>
+          <t>7.824</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>7.312</t>
+          <t>7.389</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>7.991</t>
+          <t>8.087</t>
         </is>
       </c>
       <c r="L238" t="inlineStr"/>
       <c r="M238" t="inlineStr">
         <is>
-          <t>6.829</t>
+          <t>6.853</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>0.588 (P = 0.000)</t>
+          <t>0.436 (P = 0.000)</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>0.244 (P = 0.237)</t>
+          <t>0.275 (P = 0.077)</t>
         </is>
       </c>
       <c r="P238" t="inlineStr">
         <is>
-          <t>0.528 (P = 0.000)</t>
+          <t>0.591 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q238" t="inlineStr"/>
       <c r="R238" t="inlineStr">
         <is>
-          <t>-0.771 (P = 0.135)</t>
+          <t>-0.824 (P = 0.076)</t>
         </is>
       </c>
     </row>
@@ -20331,65 +20331,65 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>6.420</t>
+          <t>6.514</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>6.532</t>
+          <t>6.553</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>6.494</t>
+          <t>6.523</t>
         </is>
       </c>
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr">
         <is>
-          <t>6.079</t>
+          <t>6.097</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>6.093</t>
+          <t>6.215</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>6.516</t>
+          <t>6.531</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>5.912</t>
+          <t>6.062</t>
         </is>
       </c>
       <c r="L243" t="inlineStr"/>
       <c r="M243" t="inlineStr">
         <is>
-          <t>6.111</t>
+          <t>6.290</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>-0.327 (P = 0.001)</t>
+          <t>-0.299 (P = 0.003)</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>-0.016 (P = 0.941)</t>
+          <t>-0.022 (P = 0.888)</t>
         </is>
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>-0.582 (P = 0.000)</t>
+          <t>-0.461 (P = 0.001)</t>
         </is>
       </c>
       <c r="Q243" t="inlineStr"/>
       <c r="R243" t="inlineStr">
         <is>
-          <t>0.032 (P = 0.955)</t>
+          <t>0.194 (P = 0.623)</t>
         </is>
       </c>
     </row>
@@ -20744,17 +20744,17 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>5.260</t>
+          <t>5.367</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>5.294</t>
+          <t>5.344</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>5.451</t>
+          <t>5.370</t>
         </is>
       </c>
       <c r="G248" t="inlineStr"/>
@@ -20765,44 +20765,44 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>4.788</t>
+          <t>4.814</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>5.371</t>
+          <t>5.379</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>4.484</t>
+          <t>4.522</t>
         </is>
       </c>
       <c r="L248" t="inlineStr"/>
       <c r="M248" t="inlineStr">
         <is>
-          <t>5.319</t>
+          <t>5.205</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>-0.473 (P = 0.000)</t>
+          <t>-0.553 (P = 0.000)</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>0.077 (P = 0.786)</t>
+          <t>0.035 (P = 0.804)</t>
         </is>
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>-0.968 (P = 0.000)</t>
+          <t>-0.848 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q248" t="inlineStr"/>
       <c r="R248" t="inlineStr">
         <is>
-          <t>-0.135 (P = 0.846)</t>
+          <t>-0.250 (P = 0.392)</t>
         </is>
       </c>
     </row>
@@ -21156,65 +21156,65 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>7.156</t>
+          <t>7.402</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>7.143</t>
+          <t>7.271</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>7.479</t>
+          <t>7.507</t>
         </is>
       </c>
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr">
         <is>
-          <t>6.609</t>
+          <t>6.750</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>7.449</t>
+          <t>7.535</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>7.315</t>
+          <t>7.410</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>7.562</t>
+          <t>7.636</t>
         </is>
       </c>
       <c r="L253" t="inlineStr"/>
       <c r="M253" t="inlineStr">
         <is>
-          <t>6.750</t>
+          <t>6.909</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>0.293 (P = 0.000)</t>
+          <t>0.133 (P = 0.065)</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>0.172 (P = 0.398)</t>
+          <t>0.139 (P = 0.269)</t>
         </is>
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>0.083 (P = 0.528)</t>
+          <t>0.129 (P = 0.155)</t>
         </is>
       </c>
       <c r="Q253" t="inlineStr"/>
       <c r="R253" t="inlineStr">
         <is>
-          <t>0.141 (P = 0.780)</t>
+          <t>0.159 (P = 0.665)</t>
         </is>
       </c>
     </row>
@@ -21568,65 +21568,65 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>7.189</t>
+          <t>7.723</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>7.525</t>
+          <t>7.562</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>7.840</t>
+          <t>7.864</t>
         </is>
       </c>
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr">
         <is>
-          <t>6.667</t>
+          <t>6.809</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>7.887</t>
+          <t>7.955</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>7.471</t>
+          <t>7.538</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>8.163</t>
+          <t>8.218</t>
         </is>
       </c>
       <c r="L258" t="inlineStr"/>
       <c r="M258" t="inlineStr">
         <is>
-          <t>6.760</t>
+          <t>6.979</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>0.698 (P = 0.000)</t>
+          <t>0.232 (P = 0.000)</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>-0.054 (P = 0.759)</t>
+          <t>-0.024 (P = 0.820)</t>
         </is>
       </c>
       <c r="P258" t="inlineStr">
         <is>
-          <t>0.322 (P = 0.002)</t>
+          <t>0.354 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q258" t="inlineStr"/>
       <c r="R258" t="inlineStr">
         <is>
-          <t>0.093 (P = 0.859)</t>
+          <t>0.170 (P = 0.561)</t>
         </is>
       </c>
     </row>
@@ -21980,65 +21980,65 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>5.486</t>
+          <t>5.389</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>5.506</t>
+          <t>5.554</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>5.326</t>
+          <t>5.341</t>
         </is>
       </c>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr">
         <is>
-          <t>5.098</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>5.811</t>
+          <t>5.884</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>5.641</t>
+          <t>5.715</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>5.894</t>
+          <t>5.976</t>
         </is>
       </c>
       <c r="L263" t="inlineStr"/>
       <c r="M263" t="inlineStr">
         <is>
-          <t>5.690</t>
+          <t>5.639</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>0.325 (P = 0.000)</t>
+          <t>0.496 (P = 0.000)</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>0.135 (P = 0.529)</t>
+          <t>0.161 (P = 0.377)</t>
         </is>
       </c>
       <c r="P263" t="inlineStr">
         <is>
-          <t>0.568 (P = 0.000)</t>
+          <t>0.635 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q263" t="inlineStr"/>
       <c r="R263" t="inlineStr">
         <is>
-          <t>0.593 (P = 0.266)</t>
+          <t>0.639 (P = 0.141)</t>
         </is>
       </c>
     </row>
@@ -22392,12 +22392,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>6.506</t>
+          <t>6.393</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>6.228</t>
+          <t>6.267</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -22413,44 +22413,44 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>6.906</t>
+          <t>6.901</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>6.378</t>
+          <t>6.375</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>7.171</t>
+          <t>7.165</t>
         </is>
       </c>
       <c r="L268" t="inlineStr"/>
       <c r="M268" t="inlineStr">
         <is>
-          <t>6.571</t>
+          <t>6.583</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>0.401 (P = 0.000)</t>
+          <t>0.508 (P = 0.000)</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>0.150 (P = 0.457)</t>
+          <t>0.109 (P = 0.407)</t>
         </is>
       </c>
       <c r="P268" t="inlineStr">
         <is>
-          <t>0.717 (P = 0.000)</t>
+          <t>0.712 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q268" t="inlineStr"/>
       <c r="R268" t="inlineStr">
         <is>
-          <t>0.217 (P = 0.656)</t>
+          <t>0.229 (P = 0.477)</t>
         </is>
       </c>
     </row>
@@ -22805,65 +22805,65 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>3.605</t>
+          <t>3.741</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>4.165</t>
+          <t>4.219</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>3.573</t>
+          <t>3.544</t>
         </is>
       </c>
       <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr">
         <is>
-          <t>3.268</t>
+          <t>3.378</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>3.523</t>
+          <t>3.570</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>4.195</t>
+          <t>4.240</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>3.243</t>
+          <t>3.269</t>
         </is>
       </c>
       <c r="L273" t="inlineStr"/>
       <c r="M273" t="inlineStr">
         <is>
-          <t>3.512</t>
+          <t>3.405</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>-0.082 (P = 0.493)</t>
+          <t>-0.171 (P = 0.107)</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>0.031 (P = 0.921)</t>
+          <t>0.021 (P = 0.906)</t>
         </is>
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>-0.330 (P = 0.094)</t>
+          <t>-0.275 (P = 0.046)</t>
         </is>
       </c>
       <c r="Q273" t="inlineStr"/>
       <c r="R273" t="inlineStr">
         <is>
-          <t>0.243 (P = 0.749)</t>
+          <t>0.027 (P = 0.937)</t>
         </is>
       </c>
     </row>
@@ -23218,65 +23218,65 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>5.936</t>
+          <t>5.856</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>6.029</t>
+          <t>6.046</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>5.729</t>
+          <t>5.751</t>
         </is>
       </c>
       <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr">
         <is>
-          <t>5.976</t>
+          <t>6.143</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>6.095</t>
+          <t>6.202</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>6.152</t>
+          <t>6.298</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>6.084</t>
+          <t>6.147</t>
         </is>
       </c>
       <c r="L278" t="inlineStr"/>
       <c r="M278" t="inlineStr">
         <is>
-          <t>5.886</t>
+          <t>6.371</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>0.159 (P = 0.147)</t>
+          <t>0.346 (P = 0.004)</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>0.124 (P = 0.626)</t>
+          <t>0.252 (P = 0.221)</t>
         </is>
       </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>0.355 (P = 0.053)</t>
+          <t>0.396 (P = 0.011)</t>
         </is>
       </c>
       <c r="Q278" t="inlineStr"/>
       <c r="R278" t="inlineStr">
         <is>
-          <t>-0.089 (P = 0.885)</t>
+          <t>0.229 (P = 0.621)</t>
         </is>
       </c>
     </row>
@@ -23631,65 +23631,65 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>7.273</t>
+          <t>7.565</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>7.283</t>
+          <t>7.290</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>7.649</t>
+          <t>7.695</t>
         </is>
       </c>
       <c r="G283" t="inlineStr"/>
       <c r="H283" t="inlineStr">
         <is>
-          <t>6.944</t>
+          <t>7.467</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>7.657</t>
+          <t>7.856</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>7.335</t>
+          <t>7.483</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>7.879</t>
+          <t>8.097</t>
         </is>
       </c>
       <c r="L283" t="inlineStr"/>
       <c r="M283" t="inlineStr">
         <is>
-          <t>6.306</t>
+          <t>6.567</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>0.384 (P = 0.000)</t>
+          <t>0.290 (P = 0.003)</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>0.052 (P = 0.823)</t>
+          <t>0.193 (P = 0.276)</t>
         </is>
       </c>
       <c r="P283" t="inlineStr">
         <is>
-          <t>0.230 (P = 0.132)</t>
+          <t>0.402 (P = 0.001)</t>
         </is>
       </c>
       <c r="Q283" t="inlineStr"/>
       <c r="R283" t="inlineStr">
         <is>
-          <t>-0.639 (P = 0.303)</t>
+          <t>-0.900 (P = 0.096)</t>
         </is>
       </c>
     </row>
@@ -24044,65 +24044,65 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>7.521</t>
+          <t>7.874</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>7.544</t>
+          <t>7.565</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>8.036</t>
+          <t>8.057</t>
         </is>
       </c>
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr">
         <is>
-          <t>7.023</t>
+          <t>7.244</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>8.020</t>
+          <t>8.103</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>7.538</t>
+          <t>7.673</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>8.321</t>
+          <t>8.354</t>
         </is>
       </c>
       <c r="L288" t="inlineStr"/>
       <c r="M288" t="inlineStr">
         <is>
-          <t>6.867</t>
+          <t>7.293</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>0.500 (P = 0.000)</t>
+          <t>0.229 (P = 0.001)</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>-0.006 (P = 0.976)</t>
+          <t>0.108 (P = 0.396)</t>
         </is>
       </c>
       <c r="P288" t="inlineStr">
         <is>
-          <t>0.285 (P = 0.019)</t>
+          <t>0.297 (P = 0.001)</t>
         </is>
       </c>
       <c r="Q288" t="inlineStr"/>
       <c r="R288" t="inlineStr">
         <is>
-          <t>-0.157 (P = 0.783)</t>
+          <t>0.049 (P = 0.904)</t>
         </is>
       </c>
     </row>
@@ -24457,65 +24457,65 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>6.631</t>
+          <t>7.124</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>6.781</t>
+          <t>6.844</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>7.236</t>
+          <t>7.276</t>
         </is>
       </c>
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr">
         <is>
-          <t>6.778</t>
+          <t>6.750</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>7.196</t>
+          <t>7.287</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>6.909</t>
+          <t>7.030</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>7.349</t>
+          <t>7.404</t>
         </is>
       </c>
       <c r="L293" t="inlineStr"/>
       <c r="M293" t="inlineStr">
         <is>
-          <t>6.896</t>
+          <t>7.250</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>0.565 (P = 0.000)</t>
+          <t>0.162 (P = 0.017)</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>0.128 (P = 0.630)</t>
+          <t>0.186 (P = 0.151)</t>
         </is>
       </c>
       <c r="P293" t="inlineStr">
         <is>
-          <t>0.112 (P = 0.535)</t>
+          <t>0.127 (P = 0.119)</t>
         </is>
       </c>
       <c r="Q293" t="inlineStr"/>
       <c r="R293" t="inlineStr">
         <is>
-          <t>0.118 (P = 0.861)</t>
+          <t>0.500 (P = 0.175)</t>
         </is>
       </c>
     </row>
@@ -24870,65 +24870,65 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>6.448</t>
+          <t>6.938</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>6.679</t>
+          <t>6.667</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>7.088</t>
+          <t>7.108</t>
         </is>
       </c>
       <c r="G298" t="inlineStr"/>
       <c r="H298" t="inlineStr">
         <is>
-          <t>6.128</t>
+          <t>6.295</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>6.821</t>
+          <t>6.889</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>6.750</t>
+          <t>6.835</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>6.861</t>
+          <t>6.923</t>
         </is>
       </c>
       <c r="L298" t="inlineStr"/>
       <c r="M298" t="inlineStr">
         <is>
-          <t>6.711</t>
+          <t>6.750</t>
         </is>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>0.374 (P = 0.001)</t>
+          <t>-0.049 (P = 0.493)</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>0.071 (P = 0.791)</t>
+          <t>0.169 (P = 0.124)</t>
         </is>
       </c>
       <c r="P298" t="inlineStr">
         <is>
-          <t>-0.227 (P = 0.223)</t>
+          <t>-0.185 (P = 0.052)</t>
         </is>
       </c>
       <c r="Q298" t="inlineStr"/>
       <c r="R298" t="inlineStr">
         <is>
-          <t>0.583 (P = 0.387)</t>
+          <t>0.455 (P = 0.164)</t>
         </is>
       </c>
     </row>
@@ -25283,65 +25283,65 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>5.833</t>
+          <t>6.278</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>6.174</t>
+          <t>6.276</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>6.290</t>
+          <t>6.308</t>
         </is>
       </c>
       <c r="G303" t="inlineStr"/>
       <c r="H303" t="inlineStr">
         <is>
-          <t>5.641</t>
+          <t>5.861</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>5.505</t>
+          <t>5.664</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>6.205</t>
+          <t>6.228</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>5.233</t>
+          <t>5.418</t>
         </is>
       </c>
       <c r="L303" t="inlineStr"/>
       <c r="M303" t="inlineStr">
         <is>
-          <t>4.978</t>
+          <t>5.278</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>-0.327 (P = 0.005)</t>
+          <t>-0.614 (P = 0.000)</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>0.032 (P = 0.903)</t>
+          <t>-0.048 (P = 0.734)</t>
         </is>
       </c>
       <c r="P303" t="inlineStr">
         <is>
-          <t>-1.057 (P = 0.000)</t>
+          <t>-0.890 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q303" t="inlineStr"/>
       <c r="R303" t="inlineStr">
         <is>
-          <t>-0.663 (P = 0.339)</t>
+          <t>-0.583 (P = 0.149)</t>
         </is>
       </c>
     </row>
@@ -25696,65 +25696,65 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>5.702</t>
+          <t>5.720</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>6.050</t>
+          <t>5.929</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>5.637</t>
+          <t>5.644</t>
         </is>
       </c>
       <c r="G308" t="inlineStr"/>
       <c r="H308" t="inlineStr">
         <is>
-          <t>5.276</t>
+          <t>5.375</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>4.907</t>
+          <t>5.211</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>5.935</t>
+          <t>6.022</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>4.504</t>
+          <t>4.843</t>
         </is>
       </c>
       <c r="L308" t="inlineStr"/>
       <c r="M308" t="inlineStr">
         <is>
-          <t>4.579</t>
+          <t>5.167</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>-0.796 (P = 0.000)</t>
+          <t>-0.508 (P = 0.000)</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>-0.115 (P = 0.655)</t>
+          <t>0.092 (P = 0.619)</t>
         </is>
       </c>
       <c r="P308" t="inlineStr">
         <is>
-          <t>-1.132 (P = 0.000)</t>
+          <t>-0.801 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q308" t="inlineStr"/>
       <c r="R308" t="inlineStr">
         <is>
-          <t>-0.697 (P = 0.363)</t>
+          <t>-0.208 (P = 0.674)</t>
         </is>
       </c>
     </row>
@@ -26109,38 +26109,38 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>6.038</t>
+          <t>6.125</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>6.121</t>
+          <t>6.207</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>6.171</t>
+          <t>6.164</t>
         </is>
       </c>
       <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr">
         <is>
-          <t>5.234</t>
+          <t>5.261</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>5.392</t>
+          <t>5.491</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>6.393</t>
+          <t>6.442</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>4.951</t>
+          <t>5.069</t>
         </is>
       </c>
       <c r="L313" t="inlineStr"/>
@@ -26151,23 +26151,23 @@
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>-0.646 (P = 0.000)</t>
+          <t>-0.635 (P = 0.000)</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>0.272 (P = 0.248)</t>
+          <t>0.236 (P = 0.113)</t>
         </is>
       </c>
       <c r="P313" t="inlineStr">
         <is>
-          <t>-1.220 (P = 0.000)</t>
+          <t>-1.095 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q313" t="inlineStr"/>
       <c r="R313" t="inlineStr">
         <is>
-          <t>0.070 (P = 0.909)</t>
+          <t>0.043 (P = 0.903)</t>
         </is>
       </c>
     </row>
@@ -26522,65 +26522,65 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>4.972</t>
+          <t>5.167</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>5.226</t>
+          <t>5.293</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>5.112</t>
+          <t>5.116</t>
         </is>
       </c>
       <c r="G318" t="inlineStr"/>
       <c r="H318" t="inlineStr">
         <is>
-          <t>5.049</t>
+          <t>5.081</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>5.459</t>
+          <t>5.474</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>5.600</t>
+          <t>5.629</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>5.432</t>
+          <t>5.429</t>
         </is>
       </c>
       <c r="L318" t="inlineStr"/>
       <c r="M318" t="inlineStr">
         <is>
-          <t>4.952</t>
+          <t>5.108</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>0.487 (P = 0.000)</t>
+          <t>0.306 (P = 0.003)</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>0.374 (P = 0.187)</t>
+          <t>0.336 (P = 0.035)</t>
         </is>
       </c>
       <c r="P318" t="inlineStr">
         <is>
-          <t>0.320 (P = 0.106)</t>
+          <t>0.313 (P = 0.022)</t>
         </is>
       </c>
       <c r="Q318" t="inlineStr"/>
       <c r="R318" t="inlineStr">
         <is>
-          <t>-0.096 (P = 0.895)</t>
+          <t>0.027 (P = 0.959)</t>
         </is>
       </c>
     </row>
@@ -26935,65 +26935,65 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>6.369</t>
+          <t>6.862</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>6.728</t>
+          <t>6.839</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>6.861</t>
+          <t>6.886</t>
         </is>
       </c>
       <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr">
         <is>
-          <t>6.372</t>
+          <t>6.667</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>6.422</t>
+          <t>6.576</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>6.640</t>
+          <t>6.752</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>6.311</t>
+          <t>6.475</t>
         </is>
       </c>
       <c r="L323" t="inlineStr"/>
       <c r="M323" t="inlineStr">
         <is>
-          <t>6.571</t>
+          <t>6.861</t>
         </is>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>0.053 (P = 0.602)</t>
+          <t>-0.286 (P = 0.002)</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>-0.088 (P = 0.703)</t>
+          <t>-0.087 (P = 0.532)</t>
         </is>
       </c>
       <c r="P323" t="inlineStr">
         <is>
-          <t>-0.550 (P = 0.001)</t>
+          <t>-0.411 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q323" t="inlineStr"/>
       <c r="R323" t="inlineStr">
         <is>
-          <t>0.199 (P = 0.723)</t>
+          <t>0.194 (P = 0.709)</t>
         </is>
       </c>
     </row>
@@ -27348,65 +27348,65 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>4.338</t>
+          <t>4.534</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>4.540</t>
+          <t>4.566</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>4.594</t>
+          <t>4.525</t>
         </is>
       </c>
       <c r="G328" t="inlineStr"/>
       <c r="H328" t="inlineStr">
         <is>
-          <t>4.200</t>
+          <t>4.441</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>4.523</t>
+          <t>4.549</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>4.532</t>
+          <t>4.527</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>4.541</t>
+          <t>4.578</t>
         </is>
       </c>
       <c r="L328" t="inlineStr"/>
       <c r="M328" t="inlineStr">
         <is>
-          <t>4.214</t>
+          <t>4.265</t>
         </is>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>0.185 (P = 0.155)</t>
+          <t>0.016 (P = 0.871)</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>-0.008 (P = 0.979)</t>
+          <t>-0.040 (P = 0.810)</t>
         </is>
       </c>
       <c r="P328" t="inlineStr">
         <is>
-          <t>-0.053 (P = 0.804)</t>
+          <t>0.053 (P = 0.669)</t>
         </is>
       </c>
       <c r="Q328" t="inlineStr"/>
       <c r="R328" t="inlineStr">
         <is>
-          <t>0.014 (P = 0.984)</t>
+          <t>-0.176 (P = 0.571)</t>
         </is>
       </c>
     </row>
@@ -27761,65 +27761,65 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>5.135</t>
+          <t>5.561</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>5.400</t>
+          <t>5.527</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>5.640</t>
+          <t>5.656</t>
         </is>
       </c>
       <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr">
         <is>
-          <t>4.355</t>
+          <t>4.300</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>5.809</t>
+          <t>5.758</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>5.536</t>
+          <t>5.509</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>6.000</t>
+          <t>5.942</t>
         </is>
       </c>
       <c r="L333" t="inlineStr"/>
       <c r="M333" t="inlineStr">
         <is>
-          <t>4.718</t>
+          <t>4.667</t>
         </is>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>0.674 (P = 0.000)</t>
+          <t>0.197 (P = 0.079)</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>0.136 (P = 0.659)</t>
+          <t>-0.018 (P = 0.920)</t>
         </is>
       </c>
       <c r="P333" t="inlineStr">
         <is>
-          <t>0.360 (P = 0.100)</t>
+          <t>0.286 (P = 0.051)</t>
         </is>
       </c>
       <c r="Q333" t="inlineStr"/>
       <c r="R333" t="inlineStr">
         <is>
-          <t>0.363 (P = 0.679)</t>
+          <t>0.367 (P = 0.471)</t>
         </is>
       </c>
     </row>
@@ -28174,65 +28174,65 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>5.802</t>
+          <t>5.569</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>5.715</t>
+          <t>5.723</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>5.578</t>
+          <t>5.561</t>
         </is>
       </c>
       <c r="G338" t="inlineStr"/>
       <c r="H338" t="inlineStr">
         <is>
-          <t>4.811</t>
+          <t>4.517</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>5.165</t>
+          <t>5.141</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>5.518</t>
+          <t>5.509</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>5.031</t>
+          <t>4.979</t>
         </is>
       </c>
       <c r="L338" t="inlineStr"/>
       <c r="M338" t="inlineStr">
         <is>
-          <t>4.868</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>-0.638 (P = 0.000)</t>
+          <t>-0.427 (P = 0.000)</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>-0.197 (P = 0.444)</t>
+          <t>-0.214 (P = 0.283)</t>
         </is>
       </c>
       <c r="P338" t="inlineStr">
         <is>
-          <t>-0.547 (P = 0.005)</t>
+          <t>-0.583 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q338" t="inlineStr"/>
       <c r="R338" t="inlineStr">
         <is>
-          <t>0.058 (P = 0.935)</t>
+          <t>0.483 (P = 0.326)</t>
         </is>
       </c>
     </row>
@@ -28587,65 +28587,65 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>6.438</t>
+          <t>6.309</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>6.291</t>
+          <t>6.254</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>6.314</t>
+          <t>6.347</t>
         </is>
       </c>
       <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr">
         <is>
-          <t>6.333</t>
+          <t>6.139</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>6.286</t>
+          <t>6.317</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>6.455</t>
+          <t>6.440</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>6.237</t>
+          <t>6.263</t>
         </is>
       </c>
       <c r="L343" t="inlineStr"/>
       <c r="M343" t="inlineStr">
         <is>
-          <t>5.932</t>
+          <t>6.278</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>-0.152 (P = 0.138)</t>
+          <t>0.008 (P = 0.944)</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>0.164 (P = 0.481)</t>
+          <t>0.185 (P = 0.300)</t>
         </is>
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>-0.077 (P = 0.655)</t>
+          <t>-0.084 (P = 0.565)</t>
         </is>
       </c>
       <c r="Q343" t="inlineStr"/>
       <c r="R343" t="inlineStr">
         <is>
-          <t>-0.402 (P = 0.530)</t>
+          <t>0.139 (P = 0.766)</t>
         </is>
       </c>
     </row>
@@ -29000,65 +29000,65 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>6.204</t>
+          <t>6.366</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>6.544</t>
+          <t>6.538</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>6.298</t>
+          <t>6.290</t>
         </is>
       </c>
       <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr">
         <is>
-          <t>6.378</t>
+          <t>6.324</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>6.029</t>
+          <t>6.102</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>6.351</t>
+          <t>6.413</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>5.927</t>
+          <t>6.004</t>
         </is>
       </c>
       <c r="L348" t="inlineStr"/>
       <c r="M348" t="inlineStr">
         <is>
-          <t>5.463</t>
+          <t>5.471</t>
         </is>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>-0.175 (P = 0.098)</t>
+          <t>-0.264 (P = 0.019)</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>-0.193 (P = 0.382)</t>
+          <t>-0.124 (P = 0.496)</t>
         </is>
       </c>
       <c r="P348" t="inlineStr">
         <is>
-          <t>-0.371 (P = 0.030)</t>
+          <t>-0.286 (P = 0.047)</t>
         </is>
       </c>
       <c r="Q348" t="inlineStr"/>
       <c r="R348" t="inlineStr">
         <is>
-          <t>-0.915 (P = 0.153)</t>
+          <t>-0.853 (P = 0.154)</t>
         </is>
       </c>
     </row>
@@ -29413,65 +29413,65 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>5.095</t>
+          <t>5.139</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>5.345</t>
+          <t>5.380</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>5.029</t>
+          <t>5.007</t>
         </is>
       </c>
       <c r="G353" t="inlineStr"/>
       <c r="H353" t="inlineStr">
         <is>
-          <t>5.387</t>
+          <t>5.433</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>5.115</t>
+          <t>5.137</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>5.409</t>
+          <t>5.420</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>5.022</t>
+          <t>5.036</t>
         </is>
       </c>
       <c r="L353" t="inlineStr"/>
       <c r="M353" t="inlineStr">
         <is>
-          <t>4.659</t>
+          <t>4.700</t>
         </is>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>0.020 (P = 0.858)</t>
+          <t>-0.001 (P = 0.990)</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>0.064 (P = 0.804)</t>
+          <t>0.039 (P = 0.837)</t>
         </is>
       </c>
       <c r="P353" t="inlineStr">
         <is>
-          <t>-0.007 (P = 0.971)</t>
+          <t>0.029 (P = 0.846)</t>
         </is>
       </c>
       <c r="Q353" t="inlineStr"/>
       <c r="R353" t="inlineStr">
         <is>
-          <t>-0.729 (P = 0.313)</t>
+          <t>-0.733 (P = 0.154)</t>
         </is>
       </c>
     </row>
@@ -29826,65 +29826,65 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>4.896</t>
+          <t>4.899</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>5.281</t>
+          <t>5.327</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>4.747</t>
+          <t>4.720</t>
         </is>
       </c>
       <c r="G358" t="inlineStr"/>
       <c r="H358" t="inlineStr">
         <is>
-          <t>4.595</t>
+          <t>4.675</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>4.593</t>
+          <t>4.583</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>5.231</t>
+          <t>5.249</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>4.297</t>
+          <t>4.277</t>
         </is>
       </c>
       <c r="L358" t="inlineStr"/>
       <c r="M358" t="inlineStr">
         <is>
-          <t>4.800</t>
+          <t>4.600</t>
         </is>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>-0.303 (P = 0.011)</t>
+          <t>-0.316 (P = 0.009)</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>-0.050 (P = 0.859)</t>
+          <t>-0.078 (P = 0.677)</t>
         </is>
       </c>
       <c r="P358" t="inlineStr">
         <is>
-          <t>-0.450 (P = 0.020)</t>
+          <t>-0.443 (P = 0.006)</t>
         </is>
       </c>
       <c r="Q358" t="inlineStr"/>
       <c r="R358" t="inlineStr">
         <is>
-          <t>0.205 (P = 0.772)</t>
+          <t>-0.075 (P = 0.872)</t>
         </is>
       </c>
     </row>
@@ -30239,65 +30239,65 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>6.972</t>
+          <t>7.327</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>7.136</t>
+          <t>7.177</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>7.417</t>
+          <t>7.421</t>
         </is>
       </c>
       <c r="G363" t="inlineStr"/>
       <c r="H363" t="inlineStr">
         <is>
-          <t>6.933</t>
+          <t>6.953</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>7.672</t>
+          <t>7.763</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>7.239</t>
+          <t>7.404</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>7.936</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="L363" t="inlineStr"/>
       <c r="M363" t="inlineStr">
         <is>
-          <t>6.652</t>
+          <t>6.721</t>
         </is>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>0.700 (P = 0.000)</t>
+          <t>0.436 (P = 0.000)</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>0.104 (P = 0.626)</t>
+          <t>0.226 (P = 0.094)</t>
         </is>
       </c>
       <c r="P363" t="inlineStr">
         <is>
-          <t>0.519 (P = 0.000)</t>
+          <t>0.579 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q363" t="inlineStr"/>
       <c r="R363" t="inlineStr">
         <is>
-          <t>-0.281 (P = 0.629)</t>
+          <t>-0.233 (P = 0.598)</t>
         </is>
       </c>
     </row>
@@ -30652,17 +30652,17 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>7.881</t>
+          <t>8.205</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>7.866</t>
+          <t>7.895</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>8.351</t>
+          <t>8.349</t>
         </is>
       </c>
       <c r="G368" t="inlineStr"/>
@@ -30673,17 +30673,17 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>8.211</t>
+          <t>8.220</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>7.812</t>
+          <t>7.816</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>8.420</t>
+          <t>8.430</t>
         </is>
       </c>
       <c r="L368" t="inlineStr"/>
@@ -30694,23 +30694,23 @@
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>0.330 (P = 0.000)</t>
+          <t>0.015 (P = 0.811)</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>-0.054 (P = 0.815)</t>
+          <t>-0.078 (P = 0.483)</t>
         </is>
       </c>
       <c r="P368" t="inlineStr">
         <is>
-          <t>0.069 (P = 0.614)</t>
+          <t>0.081 (P = 0.315)</t>
         </is>
       </c>
       <c r="Q368" t="inlineStr"/>
       <c r="R368" t="inlineStr">
         <is>
-          <t>-0.275 (P = 0.594)</t>
+          <t>-0.275 (P = 0.309)</t>
         </is>
       </c>
     </row>
@@ -31065,38 +31065,38 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>7.841</t>
+          <t>8.178</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>7.845</t>
+          <t>7.880</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>8.266</t>
+          <t>8.282</t>
         </is>
       </c>
       <c r="G373" t="inlineStr"/>
       <c r="H373" t="inlineStr">
         <is>
-          <t>8.588</t>
+          <t>8.620</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>8.210</t>
+          <t>8.215</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>7.750</t>
+          <t>7.727</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>8.450</t>
+          <t>8.471</t>
         </is>
       </c>
       <c r="L373" t="inlineStr"/>
@@ -31107,23 +31107,23 @@
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>0.370 (P = 0.000)</t>
+          <t>0.037 (P = 0.589)</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>-0.095 (P = 0.659)</t>
+          <t>-0.153 (P = 0.201)</t>
         </is>
       </c>
       <c r="P373" t="inlineStr">
         <is>
-          <t>0.185 (P = 0.167)</t>
+          <t>0.190 (P = 0.027)</t>
         </is>
       </c>
       <c r="Q373" t="inlineStr"/>
       <c r="R373" t="inlineStr">
         <is>
-          <t>-0.768 (P = 0.093)</t>
+          <t>-0.800 (P = 0.018)</t>
         </is>
       </c>
     </row>
@@ -31478,65 +31478,65 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>8.059</t>
+          <t>8.324</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>7.990</t>
+          <t>8.043</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>8.432</t>
+          <t>8.442</t>
         </is>
       </c>
       <c r="G378" t="inlineStr"/>
       <c r="H378" t="inlineStr">
         <is>
-          <t>8.460</t>
+          <t>8.489</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>8.334</t>
+          <t>8.352</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>7.934</t>
+          <t>7.926</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>8.537</t>
+          <t>8.567</t>
         </is>
       </c>
       <c r="L378" t="inlineStr"/>
       <c r="M378" t="inlineStr">
         <is>
-          <t>8.062</t>
+          <t>8.128</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>0.274 (P = 0.001)</t>
+          <t>0.028 (P = 0.687)</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>-0.056 (P = 0.791)</t>
+          <t>-0.117 (P = 0.349)</t>
         </is>
       </c>
       <c r="P378" t="inlineStr">
         <is>
-          <t>0.105 (P = 0.402)</t>
+          <t>0.125 (P = 0.155)</t>
         </is>
       </c>
       <c r="Q378" t="inlineStr"/>
       <c r="R378" t="inlineStr">
         <is>
-          <t>-0.398 (P = 0.335)</t>
+          <t>-0.362 (P = 0.312)</t>
         </is>
       </c>
     </row>
@@ -31891,17 +31891,17 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>8.964</t>
+          <t>9.181</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>8.923</t>
+          <t>8.919</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>9.299</t>
+          <t>9.294</t>
         </is>
       </c>
       <c r="G383" t="inlineStr"/>
@@ -31912,44 +31912,44 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>9.152</t>
+          <t>9.156</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>8.918</t>
+          <t>8.913</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>9.303</t>
+          <t>9.315</t>
         </is>
       </c>
       <c r="L383" t="inlineStr"/>
       <c r="M383" t="inlineStr">
         <is>
-          <t>8.588</t>
+          <t>8.560</t>
         </is>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>0.188 (P = 0.001)</t>
+          <t>-0.025 (P = 0.682)</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>-0.005 (P = 0.974)</t>
+          <t>-0.007 (P = 0.954)</t>
         </is>
       </c>
       <c r="P383" t="inlineStr">
         <is>
-          <t>0.004 (P = 0.962)</t>
+          <t>0.020 (P = 0.784)</t>
         </is>
       </c>
       <c r="Q383" t="inlineStr"/>
       <c r="R383" t="inlineStr">
         <is>
-          <t>-0.692 (P = 0.054)</t>
+          <t>-0.720 (P = 0.028)</t>
         </is>
       </c>
     </row>
@@ -32304,38 +32304,38 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>8.234</t>
+          <t>8.524</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>8.233</t>
+          <t>8.227</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>8.665</t>
+          <t>8.684</t>
         </is>
       </c>
       <c r="G388" t="inlineStr"/>
       <c r="H388" t="inlineStr">
         <is>
-          <t>8.320</t>
+          <t>8.213</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>8.563</t>
+          <t>8.572</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>8.199</t>
+          <t>8.184</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>8.783</t>
+          <t>8.805</t>
         </is>
       </c>
       <c r="L388" t="inlineStr"/>
@@ -32346,23 +32346,23 @@
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>0.329 (P = 0.000)</t>
+          <t>0.047 (P = 0.469)</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>-0.034 (P = 0.868)</t>
+          <t>-0.043 (P = 0.720)</t>
         </is>
       </c>
       <c r="P388" t="inlineStr">
         <is>
-          <t>0.118 (P = 0.333)</t>
+          <t>0.121 (P = 0.121)</t>
         </is>
       </c>
       <c r="Q388" t="inlineStr"/>
       <c r="R388" t="inlineStr">
         <is>
-          <t>-0.490 (P = 0.393)</t>
+          <t>-0.383 (P = 0.351)</t>
         </is>
       </c>
     </row>
@@ -32717,38 +32717,38 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>8.346</t>
+          <t>8.548</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>8.179</t>
+          <t>8.171</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>8.687</t>
+          <t>8.722</t>
         </is>
       </c>
       <c r="G393" t="inlineStr"/>
       <c r="H393" t="inlineStr">
         <is>
-          <t>8.608</t>
+          <t>8.571</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>8.578</t>
+          <t>8.598</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>8.226</t>
+          <t>8.237</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>8.750</t>
+          <t>8.775</t>
         </is>
       </c>
       <c r="L393" t="inlineStr"/>
@@ -32759,23 +32759,23 @@
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>0.232 (P = 0.002)</t>
+          <t>0.051 (P = 0.448)</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>0.047 (P = 0.801)</t>
+          <t>0.067 (P = 0.592)</t>
         </is>
       </c>
       <c r="P393" t="inlineStr">
         <is>
-          <t>0.063 (P = 0.582)</t>
+          <t>0.053 (P = 0.510)</t>
         </is>
       </c>
       <c r="Q393" t="inlineStr"/>
       <c r="R393" t="inlineStr">
         <is>
-          <t>-0.118 (P = 0.784)</t>
+          <t>-0.082 (P = 0.823)</t>
         </is>
       </c>
     </row>
@@ -33130,38 +33130,38 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>8.095</t>
+          <t>8.274</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>8.010</t>
+          <t>8.017</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>8.376</t>
+          <t>8.388</t>
         </is>
       </c>
       <c r="G398" t="inlineStr"/>
       <c r="H398" t="inlineStr">
         <is>
-          <t>8.373</t>
+          <t>8.340</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>8.221</t>
+          <t>8.241</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>7.977</t>
+          <t>7.980</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>8.363</t>
+          <t>8.396</t>
         </is>
       </c>
       <c r="L398" t="inlineStr"/>
@@ -33172,23 +33172,23 @@
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>0.126 (P = 0.094)</t>
+          <t>-0.033 (P = 0.655)</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>-0.033 (P = 0.858)</t>
+          <t>-0.037 (P = 0.778)</t>
         </is>
       </c>
       <c r="P398" t="inlineStr">
         <is>
-          <t>-0.013 (P = 0.910)</t>
+          <t>0.008 (P = 0.929)</t>
         </is>
       </c>
       <c r="Q398" t="inlineStr"/>
       <c r="R398" t="inlineStr">
         <is>
-          <t>-0.553 (P = 0.236)</t>
+          <t>-0.520 (P = 0.213)</t>
         </is>
       </c>
     </row>
@@ -33543,65 +33543,65 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>8.303</t>
+          <t>8.586</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>8.191</t>
+          <t>8.197</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>8.727</t>
+          <t>8.754</t>
         </is>
       </c>
       <c r="G403" t="inlineStr"/>
       <c r="H403" t="inlineStr">
         <is>
-          <t>8.735</t>
+          <t>8.771</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>8.536</t>
+          <t>8.568</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>8.023</t>
+          <t>8.003</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>8.792</t>
+          <t>8.845</t>
         </is>
       </c>
       <c r="L403" t="inlineStr"/>
       <c r="M403" t="inlineStr">
         <is>
-          <t>8.320</t>
+          <t>8.396</t>
         </is>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>0.233 (P = 0.003)</t>
+          <t>-0.018 (P = 0.795)</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>-0.168 (P = 0.401)</t>
+          <t>-0.193 (P = 0.158)</t>
         </is>
       </c>
       <c r="P403" t="inlineStr">
         <is>
-          <t>0.065 (P = 0.566)</t>
+          <t>0.090 (P = 0.281)</t>
         </is>
       </c>
       <c r="Q403" t="inlineStr"/>
       <c r="R403" t="inlineStr">
         <is>
-          <t>-0.415 (P = 0.367)</t>
+          <t>-0.375 (P = 0.361)</t>
         </is>
       </c>
     </row>
@@ -33956,65 +33956,65 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>7.786</t>
+          <t>7.827</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>7.853</t>
+          <t>7.872</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>7.795</t>
+          <t>7.802</t>
         </is>
       </c>
       <c r="G408" t="inlineStr"/>
       <c r="H408" t="inlineStr">
         <is>
-          <t>7.918</t>
+          <t>7.889</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>7.844</t>
+          <t>7.855</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>7.688</t>
+          <t>7.672</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>7.951</t>
+          <t>7.978</t>
         </is>
       </c>
       <c r="L408" t="inlineStr"/>
       <c r="M408" t="inlineStr">
         <is>
-          <t>7.362</t>
+          <t>7.333</t>
         </is>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>0.058 (P = 0.460)</t>
+          <t>0.028 (P = 0.704)</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>-0.166 (P = 0.374)</t>
+          <t>-0.199 (P = 0.122)</t>
         </is>
       </c>
       <c r="P408" t="inlineStr">
         <is>
-          <t>0.156 (P = 0.215)</t>
+          <t>0.176 (P = 0.051)</t>
         </is>
       </c>
       <c r="Q408" t="inlineStr"/>
       <c r="R408" t="inlineStr">
         <is>
-          <t>-0.557 (P = 0.264)</t>
+          <t>-0.556 (P = 0.184)</t>
         </is>
       </c>
     </row>
@@ -34369,38 +34369,38 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>7.446</t>
+          <t>7.749</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>7.565</t>
+          <t>7.574</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>7.778</t>
+          <t>7.799</t>
         </is>
       </c>
       <c r="G413" t="inlineStr"/>
       <c r="H413" t="inlineStr">
         <is>
-          <t>8.157</t>
+          <t>8.146</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>7.703</t>
+          <t>7.713</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>7.385</t>
+          <t>7.382</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>7.865</t>
+          <t>7.882</t>
         </is>
       </c>
       <c r="L413" t="inlineStr"/>
@@ -34411,23 +34411,23 @@
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>0.257 (P = 0.005)</t>
+          <t>-0.035 (P = 0.599)</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>-0.180 (P = 0.432)</t>
+          <t>-0.193 (P = 0.127)</t>
         </is>
       </c>
       <c r="P413" t="inlineStr">
         <is>
-          <t>0.086 (P = 0.545)</t>
+          <t>0.082 (P = 0.314)</t>
         </is>
       </c>
       <c r="Q413" t="inlineStr"/>
       <c r="R413" t="inlineStr">
         <is>
-          <t>-0.657 (P = 0.194)</t>
+          <t>-0.646 (P = 0.053)</t>
         </is>
       </c>
     </row>
@@ -34782,17 +34782,17 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>8.391</t>
+          <t>8.610</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>8.169</t>
+          <t>8.186</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>8.820</t>
+          <t>8.819</t>
         </is>
       </c>
       <c r="G418" t="inlineStr"/>
@@ -34803,17 +34803,17 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>8.574</t>
+          <t>8.568</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>8.189</t>
+          <t>8.166</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>8.771</t>
+          <t>8.772</t>
         </is>
       </c>
       <c r="L418" t="inlineStr"/>
@@ -34824,23 +34824,23 @@
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>0.183 (P = 0.013)</t>
+          <t>-0.043 (P = 0.541)</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>0.020 (P = 0.919)</t>
+          <t>-0.020 (P = 0.890)</t>
         </is>
       </c>
       <c r="P418" t="inlineStr">
         <is>
-          <t>-0.049 (P = 0.643)</t>
+          <t>-0.047 (P = 0.549)</t>
         </is>
       </c>
       <c r="Q418" t="inlineStr"/>
       <c r="R418" t="inlineStr">
         <is>
-          <t>-0.118 (P = 0.785)</t>
+          <t>-0.118 (P = 0.750)</t>
         </is>
       </c>
     </row>
@@ -35195,65 +35195,65 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>7.822</t>
+          <t>7.788</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>7.662</t>
+          <t>7.721</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>7.811</t>
+          <t>7.830</t>
         </is>
       </c>
       <c r="G423" t="inlineStr"/>
       <c r="H423" t="inlineStr">
         <is>
-          <t>7.478</t>
+          <t>7.644</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>7.744</t>
+          <t>7.740</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>7.836</t>
+          <t>7.821</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>7.716</t>
+          <t>7.712</t>
         </is>
       </c>
       <c r="L423" t="inlineStr"/>
       <c r="M423" t="inlineStr">
         <is>
-          <t>7.551</t>
+          <t>7.600</t>
         </is>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>-0.078 (P = 0.344)</t>
+          <t>-0.048 (P = 0.527)</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>0.174 (P = 0.368)</t>
+          <t>0.100 (P = 0.522)</t>
         </is>
       </c>
       <c r="P423" t="inlineStr">
         <is>
-          <t>-0.095 (P = 0.477)</t>
+          <t>-0.117 (P = 0.177)</t>
         </is>
       </c>
       <c r="Q423" t="inlineStr"/>
       <c r="R423" t="inlineStr">
         <is>
-          <t>0.073 (P = 0.897)</t>
+          <t>-0.044 (P = 0.919)</t>
         </is>
       </c>
     </row>
@@ -35608,7 +35608,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>8.038</t>
+          <t>8.082</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -35618,55 +35618,55 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>8.193</t>
+          <t>8.198</t>
         </is>
       </c>
       <c r="G428" t="inlineStr"/>
       <c r="H428" t="inlineStr">
         <is>
-          <t>8.163</t>
+          <t>8.167</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>8.110</t>
+          <t>8.116</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>8.067</t>
+          <t>8.079</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>8.123</t>
+          <t>8.129</t>
         </is>
       </c>
       <c r="L428" t="inlineStr"/>
       <c r="M428" t="inlineStr">
         <is>
-          <t>8.200</t>
+          <t>8.167</t>
         </is>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>0.072 (P = 0.343)</t>
+          <t>0.033 (P = 0.666)</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>0.246 (P = 0.202)</t>
+          <t>0.258 (P = 0.123)</t>
         </is>
       </c>
       <c r="P428" t="inlineStr">
         <is>
-          <t>-0.069 (P = 0.555)</t>
+          <t>-0.069 (P = 0.418)</t>
         </is>
       </c>
       <c r="Q428" t="inlineStr"/>
       <c r="R428" t="inlineStr">
         <is>
-          <t>0.037 (P = 0.937)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
     </row>
@@ -36021,17 +36021,17 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>8.753</t>
+          <t>8.879</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>8.570</t>
+          <t>8.591</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>9.008</t>
+          <t>9.011</t>
         </is>
       </c>
       <c r="G433" t="inlineStr"/>
@@ -36042,17 +36042,17 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>8.873</t>
+          <t>8.871</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>8.561</t>
+          <t>8.564</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>9.034</t>
+          <t>9.030</t>
         </is>
       </c>
       <c r="L433" t="inlineStr"/>
@@ -36063,23 +36063,23 @@
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>0.120 (P = 0.051)</t>
+          <t>-0.008 (P = 0.894)</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>-0.009 (P = 0.957)</t>
+          <t>-0.027 (P = 0.829)</t>
         </is>
       </c>
       <c r="P433" t="inlineStr">
         <is>
-          <t>0.026 (P = 0.774)</t>
+          <t>0.019 (P = 0.785)</t>
         </is>
       </c>
       <c r="Q433" t="inlineStr"/>
       <c r="R433" t="inlineStr">
         <is>
-          <t>-0.235 (P = 0.546)</t>
+          <t>-0.235 (P = 0.501)</t>
         </is>
       </c>
     </row>
@@ -36434,65 +36434,65 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>8.465</t>
+          <t>8.559</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>8.415</t>
+          <t>8.466</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>8.587</t>
+          <t>8.585</t>
         </is>
       </c>
       <c r="G438" t="inlineStr"/>
       <c r="H438" t="inlineStr">
         <is>
-          <t>8.816</t>
+          <t>8.792</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>8.516</t>
+          <t>8.523</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>8.507</t>
+          <t>8.486</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>8.531</t>
+          <t>8.547</t>
         </is>
       </c>
       <c r="L438" t="inlineStr"/>
       <c r="M438" t="inlineStr">
         <is>
-          <t>8.380</t>
+          <t>8.438</t>
         </is>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>0.051 (P = 0.452)</t>
+          <t>-0.036 (P = 0.555)</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>0.091 (P = 0.581)</t>
+          <t>0.020 (P = 0.870)</t>
         </is>
       </c>
       <c r="P438" t="inlineStr">
         <is>
-          <t>-0.056 (P = 0.596)</t>
+          <t>-0.038 (P = 0.591)</t>
         </is>
       </c>
       <c r="Q438" t="inlineStr"/>
       <c r="R438" t="inlineStr">
         <is>
-          <t>-0.436 (P = 0.229)</t>
+          <t>-0.354 (P = 0.225)</t>
         </is>
       </c>
     </row>
@@ -36847,7 +36847,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>0.714</t>
+          <t>0.781</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -36889,23 +36889,23 @@
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>0.099 (P = 0.000)</t>
+          <t>0.032 (P = 0.003)</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>0.003 (P = 0.928)</t>
+          <t>0.003 (P = 0.884)</t>
         </is>
       </c>
       <c r="P443" t="inlineStr">
         <is>
-          <t>0.043 (P = 0.031)</t>
+          <t>0.043 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q443" t="inlineStr"/>
       <c r="R443" t="inlineStr">
         <is>
-          <t>0.059 (P = 0.530)</t>
+          <t>0.059 (P = 0.411)</t>
         </is>
       </c>
     </row>
@@ -37226,27 +37226,27 @@
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="P447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -37567,27 +37567,27 @@
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="P451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -37908,27 +37908,27 @@
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="P455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -38198,17 +38198,17 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>56.082</t>
+          <t>58.239</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>55.848</t>
+          <t>55.883</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>59.764</t>
+          <t>59.834</t>
         </is>
       </c>
       <c r="G459" t="inlineStr"/>
@@ -38219,44 +38219,44 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>59.365</t>
+          <t>59.629</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>57.983</t>
+          <t>58.323</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>60.473</t>
+          <t>60.772</t>
         </is>
       </c>
       <c r="L459" t="inlineStr"/>
       <c r="M459" t="inlineStr">
         <is>
-          <t>53.140</t>
+          <t>52.490</t>
         </is>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>3.283 (P = 0.004)</t>
+          <t>1.390 (P = 0.003)</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2.135 (P = 0.459)</t>
+          <t>2.440 (P = 0.015)</t>
         </is>
       </c>
       <c r="P459" t="inlineStr">
         <is>
-          <t>0.710 (P = 0.694)</t>
+          <t>0.937 (P = 0.084)</t>
         </is>
       </c>
       <c r="Q459" t="inlineStr"/>
       <c r="R459" t="inlineStr">
         <is>
-          <t>1.711 (P = 0.795)</t>
+          <t>1.061 (P = 0.524)</t>
         </is>
       </c>
     </row>
@@ -38610,28 +38610,28 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>35.098</t>
+          <t>31.026</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>37.938</t>
+          <t>37.750</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>28.283</t>
+          <t>28.147</t>
         </is>
       </c>
       <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
         <is>
-          <t>30.857</t>
+          <t>30.319</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>31.701</t>
+          <t>31.393</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -38641,34 +38641,34 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>28.717</t>
+          <t>28.286</t>
         </is>
       </c>
       <c r="L464" t="inlineStr"/>
       <c r="M464" t="inlineStr">
         <is>
-          <t>34.208</t>
+          <t>34.404</t>
         </is>
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>-3.396 (P = 0.001)</t>
+          <t>0.367 (P = 0.566)</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>0.069 (P = 0.979)</t>
+          <t>0.257 (P = 0.842)</t>
         </is>
       </c>
       <c r="P464" t="inlineStr">
         <is>
-          <t>0.434 (P = 0.788)</t>
+          <t>0.139 (P = 0.854)</t>
         </is>
       </c>
       <c r="Q464" t="inlineStr"/>
       <c r="R464" t="inlineStr">
         <is>
-          <t>3.351 (P = 0.548)</t>
+          <t>4.085 (P = 0.161)</t>
         </is>
       </c>
     </row>
@@ -39023,65 +39023,65 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>46.536</t>
+          <t>48.295</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>45.898</t>
+          <t>46.508</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>48.975</t>
+          <t>49.365</t>
         </is>
       </c>
       <c r="G469" t="inlineStr"/>
       <c r="H469" t="inlineStr">
         <is>
-          <t>46.378</t>
+          <t>44.231</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>50.572</t>
+          <t>50.740</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>48.162</t>
+          <t>48.061</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>52.211</t>
+          <t>52.501</t>
         </is>
       </c>
       <c r="L469" t="inlineStr"/>
       <c r="M469" t="inlineStr">
         <is>
-          <t>42.143</t>
+          <t>42.282</t>
         </is>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>4.037 (P = 0.000)</t>
+          <t>2.445 (P = 0.001)</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2.264 (P = 0.379)</t>
+          <t>1.553 (P = 0.246)</t>
         </is>
       </c>
       <c r="P469" t="inlineStr">
         <is>
-          <t>3.236 (P = 0.046)</t>
+          <t>3.136 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q469" t="inlineStr"/>
       <c r="R469" t="inlineStr">
         <is>
-          <t>-4.235 (P = 0.474)</t>
+          <t>-1.949 (P = 0.491)</t>
         </is>
       </c>
     </row>
@@ -39435,65 +39435,65 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>51.524</t>
+          <t>54.388</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>51.146</t>
+          <t>51.374</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>55.610</t>
+          <t>55.921</t>
         </is>
       </c>
       <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
         <is>
-          <t>51.756</t>
+          <t>51.682</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>55.135</t>
+          <t>55.711</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>51.229</t>
+          <t>52.651</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>57.259</t>
+          <t>57.471</t>
         </is>
       </c>
       <c r="L474" t="inlineStr"/>
       <c r="M474" t="inlineStr">
         <is>
-          <t>50.312</t>
+          <t>50.091</t>
         </is>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>3.611 (P = 0.004)</t>
+          <t>1.323 (P = 0.012)</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>0.083 (P = 0.978)</t>
+          <t>1.277 (P = 0.253)</t>
         </is>
       </c>
       <c r="P474" t="inlineStr">
         <is>
-          <t>1.648 (P = 0.397)</t>
+          <t>1.550 (P = 0.011)</t>
         </is>
       </c>
       <c r="Q474" t="inlineStr"/>
       <c r="R474" t="inlineStr">
         <is>
-          <t>-1.443 (P = 0.838)</t>
+          <t>-1.591 (P = 0.334)</t>
         </is>
       </c>
     </row>
@@ -39847,65 +39847,65 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>5.316</t>
+          <t>5.499</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>5.346</t>
+          <t>5.375</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>5.582</t>
+          <t>5.591</t>
         </is>
       </c>
       <c r="G479" t="inlineStr"/>
       <c r="H479" t="inlineStr">
         <is>
-          <t>4.898</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>5.698</t>
+          <t>5.704</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>5.505</t>
+          <t>5.551</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>5.847</t>
+          <t>5.838</t>
         </is>
       </c>
       <c r="L479" t="inlineStr"/>
       <c r="M479" t="inlineStr">
         <is>
-          <t>4.854</t>
+          <t>4.804</t>
         </is>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>0.382 (P = 0.000)</t>
+          <t>0.205 (P = 0.000)</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>0.159 (P = 0.514)</t>
+          <t>0.175 (P = 0.098)</t>
         </is>
       </c>
       <c r="P479" t="inlineStr">
         <is>
-          <t>0.265 (P = 0.096)</t>
+          <t>0.247 (P = 0.001)</t>
         </is>
       </c>
       <c r="Q479" t="inlineStr"/>
       <c r="R479" t="inlineStr">
         <is>
-          <t>-0.044 (P = 0.943)</t>
+          <t>-0.196 (P = 0.403)</t>
         </is>
       </c>
     </row>
